--- a/tools/Config/Config.xlsx
+++ b/tools/Config/Config.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,6 +29,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HTTPIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http服务器ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,6 +54,38 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTPPOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http服务器端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMESERVERIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMESERVERPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pet.tianyaso.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet.tianyaso.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,32 +470,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3011</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tools/Config/Config.xlsx
+++ b/tools/Config/Config.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,35 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTTPPOST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http服务器端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMESERVERIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏服务器IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏服务器端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMESERVERPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://pet.tianyaso.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet.tianyaso.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,15 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -498,40 +470,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>3011</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Config/Config.xlsx
+++ b/tools/Config/Config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,7 +56,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HTTPPOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http服务器端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMESERVERIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMESERVERPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://pet.tianyaso.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet.tianyaso.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金杯时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUTTONMUSIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGMUSIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILLTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILLPRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能长按时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AICOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai玩家数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOUTCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次的时间，道具地图的倒计时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGHTTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与护卫打斗倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺金杯倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDCAPTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几秒后开始抢夺物资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOUTITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENLANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULTLANGUAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>被攻击次数，金杯掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKCOUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,7 +621,194 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Config/Config.xlsx
+++ b/tools/Config/Config.xlsx
@@ -1,232 +1,318 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
   <si>
     <t>HTTPIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http服务器ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pet.tianyaso.com</t>
   </si>
   <si>
     <t>HTTPPOST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http服务器端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GAMESERVERIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏服务器IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet.tianyaso.com</t>
+  </si>
+  <si>
+    <t>GAMESERVERPORT</t>
   </si>
   <si>
     <t>游戏服务器端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMESERVERPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pet.tianyaso.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet.tianyaso.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENLANGUAGE</t>
+  </si>
+  <si>
+    <t>开启多语言</t>
+  </si>
+  <si>
+    <t>DEFAULTLANGUAGE</t>
+  </si>
+  <si>
+    <t>默认语言</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>SKILLPRESS</t>
+  </si>
+  <si>
+    <t>技能长按时间</t>
+  </si>
+  <si>
+    <t>SKILLTIME</t>
+  </si>
+  <si>
+    <t>技能间隔时间</t>
   </si>
   <si>
     <t>GOLDCAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金杯时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BUTTONMUSIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按钮音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
   </si>
   <si>
     <t>BGMUSIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>背景音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILLTIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能间隔时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILLPRESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能长按时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamebg2</t>
+  </si>
+  <si>
+    <t>FGMUSIC</t>
+  </si>
+  <si>
+    <t>战斗背景音效</t>
+  </si>
+  <si>
+    <t>fight1</t>
   </si>
   <si>
     <t>AICOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ai玩家数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCOUTCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>守卫数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONETIME</t>
   </si>
   <si>
     <t>第一次的时间，道具地图的倒计时时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FIGHTTIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>与护卫打斗倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDCAPTIME</t>
   </si>
   <si>
     <t>夺金杯倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLDCAPTIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOUTITEM</t>
   </si>
   <si>
     <t>几秒后开始抢夺物资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCOUTITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPENLANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启多语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULTLANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese</t>
+  </si>
+  <si>
+    <t>ATKCOUNT</t>
   </si>
   <si>
     <t>被攻击次数，金杯掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINGSHICOUNT</t>
+  </si>
+  <si>
+    <t>灵石初始化数量</t>
+  </si>
+  <si>
+    <t>XIANSHICOUNT</t>
+  </si>
+  <si>
+    <t>仙石初始化数量</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+  <si>
+    <t>传送门开启的地图</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>光石</t>
+  </si>
+  <si>
+    <t>FIGHTPACK</t>
+  </si>
+  <si>
+    <t>战斗背包容量</t>
+  </si>
+  <si>
+    <t>PACKCOUNT</t>
+  </si>
+  <si>
+    <t>背包容量</t>
+  </si>
+  <si>
+    <t>RECRUITTIME</t>
+  </si>
+  <si>
+    <t>英雄刷新的间隔时间（单位是秒）</t>
+  </si>
+  <si>
+    <t>SHUAXINXIANSHI</t>
+  </si>
+  <si>
+    <t>使用仙石强制刷新</t>
+  </si>
+  <si>
+    <t>GMAIL</t>
+  </si>
+  <si>
+    <t>谷歌邮件</t>
+  </si>
+  <si>
+    <t>l545115382@gamil.com</t>
+  </si>
+  <si>
+    <t>KEFUQQ</t>
+  </si>
+  <si>
+    <t>客服QQ群</t>
+  </si>
+  <si>
+    <t>CSZP</t>
+  </si>
+  <si>
+    <t>使用传送阵价格灵石</t>
+  </si>
+  <si>
+    <t>DUIHUAN</t>
+  </si>
+  <si>
+    <t>仙石灵石兑换比例</t>
+  </si>
+  <si>
+    <t>REGISTERDEVICE</t>
+  </si>
+  <si>
+    <t>注册设备的路径</t>
+  </si>
+  <si>
+    <t>http://pet.tianyaso.com:10800/users/registerDevice</t>
+  </si>
+  <si>
+    <t>SAVEFILEHTTP</t>
+  </si>
+  <si>
+    <t>上传存档的服务器路径</t>
+  </si>
+  <si>
+    <t>http://pet.tianyaso.com:10800/users/SaveFile</t>
+  </si>
+  <si>
+    <t>DOWNLOADARCHIVE</t>
+  </si>
+  <si>
+    <t>下载存档的服务器路径</t>
+  </si>
+  <si>
+    <t>http://pet.tianyaso.com:10800/users/DownloadArchive</t>
+  </si>
+  <si>
+    <t>SMFEED</t>
+  </si>
+  <si>
+    <t>提交反馈意见的服务器路径</t>
+  </si>
+  <si>
+    <t>http://pet.tianyaso.com:10800/other/FeedBack</t>
+  </si>
+  <si>
+    <t>REGISTERDEVICE_TEST</t>
+  </si>
+  <si>
+    <t>http://192.168.1.6:10800/users/registerDevice</t>
+  </si>
+  <si>
+    <t>SAVEFILEHTTP_TEST</t>
+  </si>
+  <si>
+    <t>http://192.168.1.6:10800/users/SaveFile</t>
+  </si>
+  <si>
+    <t>DOWNLOADARCHIVE_TEST</t>
+  </si>
+  <si>
+    <t>http://192.168.1.6:10800/users/DownloadArchive</t>
+  </si>
+  <si>
+    <t>SMFEED_TEST</t>
+  </si>
+  <si>
+    <t>http://192.168.1.6:10800/other/FeedBack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,19 +321,349 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -255,27 +671,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -324,7 +1023,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,7 +1058,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,25 +1261,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,64 +1290,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -657,166 +1356,407 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
         <v>10000000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <f>PRODUCT(5,60)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>730953061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://pet.tianyaso.com"/>
+    <hyperlink ref="C35" r:id="rId2" display="http://pet.tianyaso.com:10800/users/registerDevice" tooltip="http://pet.tianyaso.com:10800/users/registerDevice"/>
+    <hyperlink ref="C36" r:id="rId3" display="http://pet.tianyaso.com:10800/users/SaveFile" tooltip="http://pet.tianyaso.com:10800/users/SaveFile"/>
+    <hyperlink ref="C37" r:id="rId4" display="http://pet.tianyaso.com:10800/users/DownloadArchive" tooltip="http://pet.tianyaso.com:10800/users/DownloadArchive"/>
+    <hyperlink ref="C31" r:id="rId5" display="l545115382@gamil.com"/>
+    <hyperlink ref="C38" r:id="rId6" display="http://pet.tianyaso.com:10800/other/FeedBack" tooltip="http://pet.tianyaso.com:10800/other/FeedBack"/>
+    <hyperlink ref="C39" r:id="rId7" display="http://192.168.1.6:10800/users/registerDevice" tooltip="http://192.168.1.6:10800/users/registerDevice"/>
+    <hyperlink ref="C40" r:id="rId8" display="http://192.168.1.6:10800/users/SaveFile" tooltip="http://192.168.1.6:10800/users/SaveFile"/>
+    <hyperlink ref="C41" r:id="rId9" display="http://192.168.1.6:10800/users/DownloadArchive" tooltip="http://192.168.1.6:10800/users/DownloadArchive"/>
+    <hyperlink ref="C42" r:id="rId10" display="http://192.168.1.6:10800/other/FeedBack" tooltip="http://192.168.1.6:10800/other/FeedBack"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>